--- a/medicine/Sexualité et sexologie/Linda_Sonntag/Linda_Sonntag.xlsx
+++ b/medicine/Sexualité et sexologie/Linda_Sonntag/Linda_Sonntag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linda Sonntag est une auteur finlandais de nouvelles et documentaires érotiques. Elle est également auteur de livres éducatifs pour enfants.
 </t>
@@ -513,19 +525,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A caractère érotique
-Jeux érotiques, 2006réédité en 2007
+          <t>A caractère érotique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jeux érotiques, 2006réédité en 2007
 Avant l'amour..., 2006
 (de) Sex und Liebeskunst, 2004
 Sexe, 2003
 Techniques sexuelles. Plaisir &amp; passion, 2002
 Sexe et Sens, 2002
 Kâma-Sûtra sur l'oreiller, 2002
-Vivre le Kâma-sûtra : 23 Positions inspirées du texte indien de référence, 2001
-Pour enfants
-1000 questions et réponses, 2003
-1 2 3 musique ! (avec instruments), 2000
-Apprendre à compter avec Linda Sonntag, 1999</t>
+Vivre le Kâma-sûtra : 23 Positions inspirées du texte indien de référence, 2001</t>
         </is>
       </c>
     </row>
@@ -550,10 +563,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pour enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1000 questions et réponses, 2003
+1 2 3 musique ! (avec instruments), 2000
+Apprendre à compter avec Linda Sonntag, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Linda_Sonntag</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Sonntag</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la sexualité et de la sexologie                     </t>
